--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang7/01.TraBH/TBH_Skytech_150724.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang7/01.TraBH/TBH_Skytech_150724.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2024\Thang7\01.TraBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2024\Thang7\01.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB55984-9DBA-484F-939E-D2694FA5EFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,13 +145,13 @@
     <t>H</t>
   </si>
   <si>
-    <t>ID mới: 003200467E</t>
+    <t>ID cũ: 003200467E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,9 +657,93 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,90 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -796,7 +797,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -832,9 +833,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -872,9 +873,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,7 +910,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -944,7 +945,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1117,14 +1118,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1196,26 +1197,26 @@
       <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -1223,12 +1224,12 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
@@ -1236,12 +1237,12 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
@@ -1252,12 +1253,12 @@
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -1308,79 +1309,79 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
+      <c r="A12" s="33">
         <v>1</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="36">
         <v>862205051234963</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="63"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62">
+      <c r="A13" s="33">
         <v>2</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
+      <c r="A14" s="33">
         <v>3</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1399,26 +1400,26 @@
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -1463,19 +1464,19 @@
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
@@ -1489,12 +1490,19 @@
       <c r="I23" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
     </row>
     <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
@@ -1504,13 +1512,6 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
